--- a/data/trans_dic/P9_3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee tableta en su vivienda actual</t>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>62,18%</t>
+          <t>64,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>57,27%</t>
+          <t>63,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>61,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>60,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>57,9%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,88%</t>
+          <t>61,59%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,38; 74,15</t>
+          <t>42,64; 80,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,59; 70,38</t>
+          <t>42,25; 79,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,87; 65,79</t>
+          <t>45,86; 75,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,28; 69,04</t>
+          <t>44,21; 74,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,25; 66,57</t>
+          <t>51,91; 73,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,03; 66,56</t>
+          <t>50,54; 71,99</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>43,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>48,1%</t>
+          <t>40,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>58,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,89%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,2%</t>
+          <t>49,59%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,59; 64,47</t>
+          <t>23,34; 63,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,61; 62,59</t>
+          <t>20,23; 61,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>47,86; 69,09</t>
+          <t>45,87; 73,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,92; 66,07</t>
+          <t>43,52; 71,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,94; 64,22</t>
+          <t>39,79; 63,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,6; 61,93</t>
+          <t>36,22; 61,88</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>61,02%</t>
+          <t>65,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>65,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>69,64%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69,35%</t>
+          <t>71,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,66%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>69,02%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,25; 70,28</t>
+          <t>53,58; 76,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,35; 75,46</t>
+          <t>53,44; 76,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>60,84; 76,66</t>
+          <t>60,75; 78,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,71; 76,6</t>
+          <t>62,67; 80,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,42; 71,54</t>
+          <t>60,45; 75,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,32; 72,73</t>
+          <t>61,98; 76,01</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>66,43%</t>
+          <t>61,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>59,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>60,3%</t>
+          <t>63,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>60,42%</t>
+          <t>62,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>62,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,66%</t>
+          <t>61,18%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,47; 74,71</t>
+          <t>49,94; 71,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>56,93; 73,77</t>
+          <t>48,34; 70,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,59; 67,66</t>
+          <t>53,59; 71,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,93; 68,16</t>
+          <t>52,64; 71,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,67; 68,22</t>
+          <t>54,75; 69,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,3; 68,0</t>
+          <t>53,62; 67,25</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>52,45%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>51,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>52,52%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>53,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>52,34%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,29; 62,2</t>
+          <t>39,22; 65,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,31; 61,11</t>
+          <t>37,47; 64,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,79; 54,8</t>
+          <t>39,34; 65,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,2; 54,76</t>
+          <t>40,23; 65,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,24; 55,38</t>
+          <t>43,71; 61,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>41,3; 54,81</t>
+          <t>42,72; 61,19</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>26,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>32,15%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,62; 44,78</t>
+          <t>26,49; 56,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,14; 45,3</t>
+          <t>26,25; 56,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 35,39</t>
+          <t>15,64; 40,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,04; 39,71</t>
+          <t>15,59; 40,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,44; 36,5</t>
+          <t>22,36; 43,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,06; 39,15</t>
+          <t>22,31; 42,97</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>55,22%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>57,96%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>54,51%</t>
+          <t>56,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>55,98%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>50,69; 59,54</t>
+          <t>47,85; 61,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49,77; 59,54</t>
+          <t>45,37; 59,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>49,72; 57,66</t>
+          <t>53,77; 63,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,69; 58,37</t>
+          <t>53,23; 63,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,67; 57,48</t>
+          <t>52,87; 60,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,56; 58,04</t>
+          <t>51,95; 60,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>55592</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>67996</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>72339</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>80461</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>127931</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>148457</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36714; 69356</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>45214; 85462</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>53914; 88302</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>59238; 99461</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>105727; 149007</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>121813; 173503</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>59300</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68430</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>81294</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>97128</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>140593</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>165558</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>31937; 87109</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34144; 103972</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>61152; 97493</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>71860; 117766</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>107497; 172733</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>120929; 206599</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>91288</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>106031</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>150709</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>188062</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>241997</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>294093</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74860; 106765</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>86600; 124344</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>130862; 169935</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>165491; 211606</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>214673; 267307</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>264130; 323897</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>99877</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>111348</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>121413</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>136458</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>221290</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>247805</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>81645; 116658</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>90248; 130734</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>102514; 137668</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>114941; 155663</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>194239; 245395</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>217197; 272410</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>73276</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>81343</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>54350</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>61883</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>127626</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>143227</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>54469; 90914</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>58991; 101305</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>40710; 67368</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>46753; 76321</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>105947; 149054</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>116899; 167431</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>36177</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>43267</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27974</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>36112</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>64151</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>79378</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>23902; 51399</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>28695; 61549</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>16736; 43043</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21458; 55631</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>44116; 85040</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>55097; 106096</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>415510</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>478414</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>508079</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>600103</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>923589</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1078518</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>361363; 462001</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>404394; 533324</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>466786; 553285</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>551087; 656123</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>858227; 985369</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1000887; 1156860</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>